--- a/training/all_files.xlsx
+++ b/training/all_files.xlsx
@@ -70,9 +70,6 @@
     <t>Exercise 4 - KNMI daggegevens.ipynb</t>
   </si>
   <si>
-    <t>file_analyseren.ipynb</t>
-  </si>
-  <si>
     <t>all_files.xlsx</t>
   </si>
   <si>
@@ -92,6 +89,9 @@
   </si>
   <si>
     <t>first.ipynb</t>
+  </si>
+  <si>
+    <t>files_controleren_met_pathlib.ipynb</t>
   </si>
   <si>
     <t>exercise 1 - describe function.ipynb</t>
@@ -911,7 +911,7 @@
         <v>59</v>
       </c>
       <c r="D12">
-        <v>83107</v>
+        <v>8570</v>
       </c>
       <c r="E12">
         <v>501</v>
@@ -923,10 +923,10 @@
         <v>68</v>
       </c>
       <c r="H12">
-        <v>1763472446.872414</v>
+        <v>1763496332.481544</v>
       </c>
       <c r="I12">
-        <v>1763472446.872414</v>
+        <v>1763496332.481544</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -940,7 +940,7 @@
         <v>59</v>
       </c>
       <c r="D13">
-        <v>8630</v>
+        <v>1698025</v>
       </c>
       <c r="E13">
         <v>501</v>
@@ -952,10 +952,10 @@
         <v>68</v>
       </c>
       <c r="H13">
-        <v>1763475751.833546</v>
+        <v>1763472417.322894</v>
       </c>
       <c r="I13">
-        <v>1763475751.833546</v>
+        <v>1763472417.322894</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -969,7 +969,7 @@
         <v>59</v>
       </c>
       <c r="D14">
-        <v>1698025</v>
+        <v>65537</v>
       </c>
       <c r="E14">
         <v>501</v>
@@ -981,10 +981,10 @@
         <v>68</v>
       </c>
       <c r="H14">
-        <v>1763472417.322894</v>
+        <v>1763499734.532392</v>
       </c>
       <c r="I14">
-        <v>1763472417.322894</v>
+        <v>1763499734.532392</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -998,7 +998,7 @@
         <v>59</v>
       </c>
       <c r="D15">
-        <v>121884</v>
+        <v>95432</v>
       </c>
       <c r="E15">
         <v>501</v>
@@ -1010,10 +1010,10 @@
         <v>68</v>
       </c>
       <c r="H15">
-        <v>1763475902.280207</v>
+        <v>1763458937.570964</v>
       </c>
       <c r="I15">
-        <v>1763475902.280207</v>
+        <v>1763458937.570964</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1027,7 +1027,7 @@
         <v>59</v>
       </c>
       <c r="D16">
-        <v>95432</v>
+        <v>207829</v>
       </c>
       <c r="E16">
         <v>501</v>
@@ -1039,10 +1039,10 @@
         <v>68</v>
       </c>
       <c r="H16">
-        <v>1763458937.570964</v>
+        <v>1763459005.159878</v>
       </c>
       <c r="I16">
-        <v>1763458937.570964</v>
+        <v>1763459005.159878</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1056,7 +1056,7 @@
         <v>59</v>
       </c>
       <c r="D17">
-        <v>207829</v>
+        <v>20935</v>
       </c>
       <c r="E17">
         <v>501</v>
@@ -1068,10 +1068,10 @@
         <v>68</v>
       </c>
       <c r="H17">
-        <v>1763459005.159878</v>
+        <v>1763451386.081947</v>
       </c>
       <c r="I17">
-        <v>1763459005.159878</v>
+        <v>1763389436.341925</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1085,7 +1085,7 @@
         <v>59</v>
       </c>
       <c r="D18">
-        <v>20935</v>
+        <v>17823</v>
       </c>
       <c r="E18">
         <v>501</v>
@@ -1097,10 +1097,10 @@
         <v>68</v>
       </c>
       <c r="H18">
-        <v>1763451386.081947</v>
+        <v>1763371510.888359</v>
       </c>
       <c r="I18">
-        <v>1763389436.341925</v>
+        <v>1763371510.888359</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1114,7 +1114,7 @@
         <v>59</v>
       </c>
       <c r="D19">
-        <v>17823</v>
+        <v>25539</v>
       </c>
       <c r="E19">
         <v>501</v>
@@ -1126,10 +1126,10 @@
         <v>68</v>
       </c>
       <c r="H19">
-        <v>1763371510.888359</v>
+        <v>1763499684.51388</v>
       </c>
       <c r="I19">
-        <v>1763371510.888359</v>
+        <v>1763499684.51388</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1694,7 +1694,7 @@
         <v>65</v>
       </c>
       <c r="D39">
-        <v>5155837</v>
+        <v>5164475</v>
       </c>
       <c r="E39">
         <v>501</v>
@@ -1706,10 +1706,10 @@
         <v>68</v>
       </c>
       <c r="H39">
-        <v>1763383023.912215</v>
+        <v>1763476292.064741</v>
       </c>
       <c r="I39">
-        <v>1763375120.472781</v>
+        <v>1763476292.061888</v>
       </c>
     </row>
     <row r="40" spans="1:9">
